--- a/school_excel_data/学生Insert用/grade2_students.xlsx
+++ b/school_excel_data/学生Insert用/grade2_students.xlsx
@@ -2883,7 +2883,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F334"/>
+      <selection activeCell="F2" sqref="F2:F334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2928,7 +2928,7 @@
         <v>209</v>
       </c>
       <c r="F2" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2948,7 +2948,7 @@
         <v>210</v>
       </c>
       <c r="F3" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2968,7 +2968,7 @@
         <v>206</v>
       </c>
       <c r="F4" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2988,7 +2988,7 @@
         <v>207</v>
       </c>
       <c r="F5" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -3008,7 +3008,7 @@
         <v>208</v>
       </c>
       <c r="F6" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -3028,7 +3028,7 @@
         <v>209</v>
       </c>
       <c r="F7" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -3048,7 +3048,7 @@
         <v>210</v>
       </c>
       <c r="F8" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -3068,7 +3068,7 @@
         <v>206</v>
       </c>
       <c r="F9" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -3088,7 +3088,7 @@
         <v>207</v>
       </c>
       <c r="F10" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -3108,7 +3108,7 @@
         <v>208</v>
       </c>
       <c r="F11" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -3128,7 +3128,7 @@
         <v>209</v>
       </c>
       <c r="F12" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -3148,7 +3148,7 @@
         <v>210</v>
       </c>
       <c r="F13" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -3168,7 +3168,7 @@
         <v>206</v>
       </c>
       <c r="F14" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3188,7 +3188,7 @@
         <v>207</v>
       </c>
       <c r="F15" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3208,7 +3208,7 @@
         <v>208</v>
       </c>
       <c r="F16" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -3228,7 +3228,7 @@
         <v>209</v>
       </c>
       <c r="F17" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -3248,7 +3248,7 @@
         <v>210</v>
       </c>
       <c r="F18" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -3268,7 +3268,7 @@
         <v>206</v>
       </c>
       <c r="F19" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -3288,7 +3288,7 @@
         <v>207</v>
       </c>
       <c r="F20" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -3308,7 +3308,7 @@
         <v>208</v>
       </c>
       <c r="F21" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -3328,7 +3328,7 @@
         <v>209</v>
       </c>
       <c r="F22" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -3348,7 +3348,7 @@
         <v>210</v>
       </c>
       <c r="F23" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -3368,7 +3368,7 @@
         <v>206</v>
       </c>
       <c r="F24" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -3388,7 +3388,7 @@
         <v>207</v>
       </c>
       <c r="F25" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -3408,7 +3408,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -3428,7 +3428,7 @@
         <v>209</v>
       </c>
       <c r="F27" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -3448,7 +3448,7 @@
         <v>210</v>
       </c>
       <c r="F28" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -3468,7 +3468,7 @@
         <v>206</v>
       </c>
       <c r="F29" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -3488,7 +3488,7 @@
         <v>207</v>
       </c>
       <c r="F30" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -3508,7 +3508,7 @@
         <v>208</v>
       </c>
       <c r="F31" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -3528,7 +3528,7 @@
         <v>209</v>
       </c>
       <c r="F32" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -3548,7 +3548,7 @@
         <v>210</v>
       </c>
       <c r="F33" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -3568,7 +3568,7 @@
         <v>206</v>
       </c>
       <c r="F34" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -3588,7 +3588,7 @@
         <v>207</v>
       </c>
       <c r="F35" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -3608,7 +3608,7 @@
         <v>208</v>
       </c>
       <c r="F36" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -3628,7 +3628,7 @@
         <v>209</v>
       </c>
       <c r="F37" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -3648,7 +3648,7 @@
         <v>210</v>
       </c>
       <c r="F38" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -3668,7 +3668,7 @@
         <v>206</v>
       </c>
       <c r="F39" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -3688,7 +3688,7 @@
         <v>207</v>
       </c>
       <c r="F40" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -3708,7 +3708,7 @@
         <v>208</v>
       </c>
       <c r="F41" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -3728,7 +3728,7 @@
         <v>209</v>
       </c>
       <c r="F42" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -3748,7 +3748,7 @@
         <v>210</v>
       </c>
       <c r="F43" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -3768,7 +3768,7 @@
         <v>206</v>
       </c>
       <c r="F44" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -3788,7 +3788,7 @@
         <v>207</v>
       </c>
       <c r="F45" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -3808,7 +3808,7 @@
         <v>208</v>
       </c>
       <c r="F46" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -3828,7 +3828,7 @@
         <v>209</v>
       </c>
       <c r="F47" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -3848,7 +3848,7 @@
         <v>210</v>
       </c>
       <c r="F48" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -3868,7 +3868,7 @@
         <v>206</v>
       </c>
       <c r="F49" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -3888,7 +3888,7 @@
         <v>207</v>
       </c>
       <c r="F50" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -3908,7 +3908,7 @@
         <v>208</v>
       </c>
       <c r="F51" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -3928,7 +3928,7 @@
         <v>209</v>
       </c>
       <c r="F52" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -3948,7 +3948,7 @@
         <v>210</v>
       </c>
       <c r="F53" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -3968,7 +3968,7 @@
         <v>206</v>
       </c>
       <c r="F54" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -3988,7 +3988,7 @@
         <v>207</v>
       </c>
       <c r="F55" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -4008,7 +4008,7 @@
         <v>208</v>
       </c>
       <c r="F56" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -4028,7 +4028,7 @@
         <v>209</v>
       </c>
       <c r="F57" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -4048,7 +4048,7 @@
         <v>210</v>
       </c>
       <c r="F58" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -4068,7 +4068,7 @@
         <v>206</v>
       </c>
       <c r="F59" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -4088,7 +4088,7 @@
         <v>207</v>
       </c>
       <c r="F60" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -4108,7 +4108,7 @@
         <v>208</v>
       </c>
       <c r="F61" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -4128,7 +4128,7 @@
         <v>209</v>
       </c>
       <c r="F62" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -4148,7 +4148,7 @@
         <v>210</v>
       </c>
       <c r="F63" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -4168,7 +4168,7 @@
         <v>206</v>
       </c>
       <c r="F64" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -4188,7 +4188,7 @@
         <v>207</v>
       </c>
       <c r="F65" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
@@ -4208,7 +4208,7 @@
         <v>208</v>
       </c>
       <c r="F66" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -4228,7 +4228,7 @@
         <v>209</v>
       </c>
       <c r="F67" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
@@ -4248,7 +4248,7 @@
         <v>210</v>
       </c>
       <c r="F68" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
@@ -4268,7 +4268,7 @@
         <v>206</v>
       </c>
       <c r="F69" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -4288,7 +4288,7 @@
         <v>207</v>
       </c>
       <c r="F70" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -4308,7 +4308,7 @@
         <v>208</v>
       </c>
       <c r="F71" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
@@ -4328,7 +4328,7 @@
         <v>209</v>
       </c>
       <c r="F72" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
@@ -4348,7 +4348,7 @@
         <v>210</v>
       </c>
       <c r="F73" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -4368,7 +4368,7 @@
         <v>206</v>
       </c>
       <c r="F74" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
@@ -4388,7 +4388,7 @@
         <v>207</v>
       </c>
       <c r="F75" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
@@ -4408,7 +4408,7 @@
         <v>208</v>
       </c>
       <c r="F76" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
@@ -4428,7 +4428,7 @@
         <v>209</v>
       </c>
       <c r="F77" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
@@ -4448,7 +4448,7 @@
         <v>210</v>
       </c>
       <c r="F78" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -4468,7 +4468,7 @@
         <v>206</v>
       </c>
       <c r="F79" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -4488,7 +4488,7 @@
         <v>207</v>
       </c>
       <c r="F80" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -4508,7 +4508,7 @@
         <v>208</v>
       </c>
       <c r="F81" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -4528,7 +4528,7 @@
         <v>209</v>
       </c>
       <c r="F82" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -4548,7 +4548,7 @@
         <v>210</v>
       </c>
       <c r="F83" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -4568,7 +4568,7 @@
         <v>206</v>
       </c>
       <c r="F84" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -4588,7 +4588,7 @@
         <v>207</v>
       </c>
       <c r="F85" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -4608,7 +4608,7 @@
         <v>208</v>
       </c>
       <c r="F86" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
@@ -4628,7 +4628,7 @@
         <v>209</v>
       </c>
       <c r="F87" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -4648,7 +4648,7 @@
         <v>210</v>
       </c>
       <c r="F88" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -4668,7 +4668,7 @@
         <v>206</v>
       </c>
       <c r="F89" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -4688,7 +4688,7 @@
         <v>207</v>
       </c>
       <c r="F90" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -4708,7 +4708,7 @@
         <v>208</v>
       </c>
       <c r="F91" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -4728,7 +4728,7 @@
         <v>209</v>
       </c>
       <c r="F92" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
@@ -4748,7 +4748,7 @@
         <v>210</v>
       </c>
       <c r="F93" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -4768,7 +4768,7 @@
         <v>206</v>
       </c>
       <c r="F94" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
@@ -4788,7 +4788,7 @@
         <v>207</v>
       </c>
       <c r="F95" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
@@ -4808,7 +4808,7 @@
         <v>208</v>
       </c>
       <c r="F96" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
@@ -4828,7 +4828,7 @@
         <v>209</v>
       </c>
       <c r="F97" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
@@ -4848,7 +4848,7 @@
         <v>210</v>
       </c>
       <c r="F98" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
@@ -4868,7 +4868,7 @@
         <v>206</v>
       </c>
       <c r="F99" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
@@ -4888,7 +4888,7 @@
         <v>207</v>
       </c>
       <c r="F100" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
@@ -4908,7 +4908,7 @@
         <v>208</v>
       </c>
       <c r="F101" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
@@ -4928,7 +4928,7 @@
         <v>209</v>
       </c>
       <c r="F102" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
@@ -4948,7 +4948,7 @@
         <v>210</v>
       </c>
       <c r="F103" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
@@ -4968,7 +4968,7 @@
         <v>206</v>
       </c>
       <c r="F104" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
@@ -4988,7 +4988,7 @@
         <v>207</v>
       </c>
       <c r="F105" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
@@ -5008,7 +5008,7 @@
         <v>208</v>
       </c>
       <c r="F106" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
@@ -5028,7 +5028,7 @@
         <v>209</v>
       </c>
       <c r="F107" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
@@ -5048,7 +5048,7 @@
         <v>210</v>
       </c>
       <c r="F108" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
@@ -5068,7 +5068,7 @@
         <v>206</v>
       </c>
       <c r="F109" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
@@ -5088,7 +5088,7 @@
         <v>207</v>
       </c>
       <c r="F110" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
@@ -5108,7 +5108,7 @@
         <v>208</v>
       </c>
       <c r="F111" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
@@ -5128,7 +5128,7 @@
         <v>209</v>
       </c>
       <c r="F112" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
@@ -5148,7 +5148,7 @@
         <v>210</v>
       </c>
       <c r="F113" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
@@ -5168,7 +5168,7 @@
         <v>206</v>
       </c>
       <c r="F114" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
@@ -5188,7 +5188,7 @@
         <v>207</v>
       </c>
       <c r="F115" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
@@ -5208,7 +5208,7 @@
         <v>208</v>
       </c>
       <c r="F116" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
@@ -5228,7 +5228,7 @@
         <v>209</v>
       </c>
       <c r="F117" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
@@ -5248,7 +5248,7 @@
         <v>210</v>
       </c>
       <c r="F118" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
@@ -5268,7 +5268,7 @@
         <v>206</v>
       </c>
       <c r="F119" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
@@ -5288,7 +5288,7 @@
         <v>207</v>
       </c>
       <c r="F120" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
@@ -5308,7 +5308,7 @@
         <v>208</v>
       </c>
       <c r="F121" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
@@ -5328,7 +5328,7 @@
         <v>209</v>
       </c>
       <c r="F122" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
@@ -5348,7 +5348,7 @@
         <v>210</v>
       </c>
       <c r="F123" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
@@ -5368,7 +5368,7 @@
         <v>206</v>
       </c>
       <c r="F124" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
@@ -5388,7 +5388,7 @@
         <v>207</v>
       </c>
       <c r="F125" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
@@ -5408,7 +5408,7 @@
         <v>208</v>
       </c>
       <c r="F126" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
@@ -5428,7 +5428,7 @@
         <v>209</v>
       </c>
       <c r="F127" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
@@ -5448,7 +5448,7 @@
         <v>210</v>
       </c>
       <c r="F128" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
@@ -5468,7 +5468,7 @@
         <v>206</v>
       </c>
       <c r="F129" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
@@ -5488,7 +5488,7 @@
         <v>207</v>
       </c>
       <c r="F130" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
@@ -5508,7 +5508,7 @@
         <v>208</v>
       </c>
       <c r="F131" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
@@ -5528,7 +5528,7 @@
         <v>209</v>
       </c>
       <c r="F132" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
@@ -5548,7 +5548,7 @@
         <v>210</v>
       </c>
       <c r="F133" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
@@ -5568,7 +5568,7 @@
         <v>206</v>
       </c>
       <c r="F134" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
@@ -5588,7 +5588,7 @@
         <v>207</v>
       </c>
       <c r="F135" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
@@ -5608,7 +5608,7 @@
         <v>208</v>
       </c>
       <c r="F136" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
@@ -5628,7 +5628,7 @@
         <v>209</v>
       </c>
       <c r="F137" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
@@ -5648,7 +5648,7 @@
         <v>210</v>
       </c>
       <c r="F138" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
@@ -5668,7 +5668,7 @@
         <v>206</v>
       </c>
       <c r="F139" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
@@ -5688,7 +5688,7 @@
         <v>207</v>
       </c>
       <c r="F140" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
@@ -5708,7 +5708,7 @@
         <v>208</v>
       </c>
       <c r="F141" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
@@ -5728,7 +5728,7 @@
         <v>209</v>
       </c>
       <c r="F142" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
@@ -5748,7 +5748,7 @@
         <v>210</v>
       </c>
       <c r="F143" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
@@ -5768,7 +5768,7 @@
         <v>206</v>
       </c>
       <c r="F144" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
@@ -5788,7 +5788,7 @@
         <v>207</v>
       </c>
       <c r="F145" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
@@ -5808,7 +5808,7 @@
         <v>208</v>
       </c>
       <c r="F146" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
@@ -5828,7 +5828,7 @@
         <v>209</v>
       </c>
       <c r="F147" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
@@ -5848,7 +5848,7 @@
         <v>210</v>
       </c>
       <c r="F148" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
@@ -5868,7 +5868,7 @@
         <v>206</v>
       </c>
       <c r="F149" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
@@ -5888,7 +5888,7 @@
         <v>207</v>
       </c>
       <c r="F150" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
@@ -5908,7 +5908,7 @@
         <v>208</v>
       </c>
       <c r="F151" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
@@ -5928,7 +5928,7 @@
         <v>209</v>
       </c>
       <c r="F152" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
@@ -5948,7 +5948,7 @@
         <v>210</v>
       </c>
       <c r="F153" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
@@ -5968,7 +5968,7 @@
         <v>206</v>
       </c>
       <c r="F154" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
@@ -5988,7 +5988,7 @@
         <v>207</v>
       </c>
       <c r="F155" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
@@ -6008,7 +6008,7 @@
         <v>208</v>
       </c>
       <c r="F156" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
@@ -6028,7 +6028,7 @@
         <v>209</v>
       </c>
       <c r="F157" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
@@ -6048,7 +6048,7 @@
         <v>210</v>
       </c>
       <c r="F158" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
@@ -6068,7 +6068,7 @@
         <v>206</v>
       </c>
       <c r="F159" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
@@ -6088,7 +6088,7 @@
         <v>207</v>
       </c>
       <c r="F160" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
@@ -6108,7 +6108,7 @@
         <v>208</v>
       </c>
       <c r="F161" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
@@ -6128,7 +6128,7 @@
         <v>209</v>
       </c>
       <c r="F162" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
@@ -6148,7 +6148,7 @@
         <v>210</v>
       </c>
       <c r="F163" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
@@ -6168,7 +6168,7 @@
         <v>206</v>
       </c>
       <c r="F164" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
@@ -6188,7 +6188,7 @@
         <v>207</v>
       </c>
       <c r="F165" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
@@ -6208,7 +6208,7 @@
         <v>208</v>
       </c>
       <c r="F166" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
@@ -6228,7 +6228,7 @@
         <v>209</v>
       </c>
       <c r="F167" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
@@ -6248,7 +6248,7 @@
         <v>210</v>
       </c>
       <c r="F168" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
@@ -6268,7 +6268,7 @@
         <v>206</v>
       </c>
       <c r="F169" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
@@ -6288,7 +6288,7 @@
         <v>207</v>
       </c>
       <c r="F170" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
@@ -6308,7 +6308,7 @@
         <v>208</v>
       </c>
       <c r="F171" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
@@ -6328,7 +6328,7 @@
         <v>209</v>
       </c>
       <c r="F172" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
@@ -6348,7 +6348,7 @@
         <v>210</v>
       </c>
       <c r="F173" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
@@ -6368,7 +6368,7 @@
         <v>206</v>
       </c>
       <c r="F174" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
@@ -6388,7 +6388,7 @@
         <v>207</v>
       </c>
       <c r="F175" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
@@ -6408,7 +6408,7 @@
         <v>208</v>
       </c>
       <c r="F176" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
@@ -6428,7 +6428,7 @@
         <v>209</v>
       </c>
       <c r="F177" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
@@ -6448,7 +6448,7 @@
         <v>210</v>
       </c>
       <c r="F178" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
@@ -6468,7 +6468,7 @@
         <v>206</v>
       </c>
       <c r="F179" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
@@ -6488,7 +6488,7 @@
         <v>207</v>
       </c>
       <c r="F180" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
@@ -6508,7 +6508,7 @@
         <v>208</v>
       </c>
       <c r="F181" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.15">
@@ -6528,7 +6528,7 @@
         <v>209</v>
       </c>
       <c r="F182" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.15">
@@ -6548,7 +6548,7 @@
         <v>210</v>
       </c>
       <c r="F183" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
@@ -6568,7 +6568,7 @@
         <v>206</v>
       </c>
       <c r="F184" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
@@ -6588,7 +6588,7 @@
         <v>207</v>
       </c>
       <c r="F185" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.15">
@@ -6608,7 +6608,7 @@
         <v>208</v>
       </c>
       <c r="F186" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
@@ -6628,7 +6628,7 @@
         <v>209</v>
       </c>
       <c r="F187" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
@@ -6648,7 +6648,7 @@
         <v>210</v>
       </c>
       <c r="F188" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.15">
@@ -6668,7 +6668,7 @@
         <v>206</v>
       </c>
       <c r="F189" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.15">
@@ -6688,7 +6688,7 @@
         <v>207</v>
       </c>
       <c r="F190" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
@@ -6708,7 +6708,7 @@
         <v>208</v>
       </c>
       <c r="F191" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.15">
@@ -6728,7 +6728,7 @@
         <v>209</v>
       </c>
       <c r="F192" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.15">
@@ -6748,7 +6748,7 @@
         <v>210</v>
       </c>
       <c r="F193" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.15">
@@ -6768,7 +6768,7 @@
         <v>206</v>
       </c>
       <c r="F194" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.15">
@@ -6788,7 +6788,7 @@
         <v>207</v>
       </c>
       <c r="F195" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.15">
@@ -6808,7 +6808,7 @@
         <v>208</v>
       </c>
       <c r="F196" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.15">
@@ -6828,7 +6828,7 @@
         <v>209</v>
       </c>
       <c r="F197" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.15">
@@ -6848,7 +6848,7 @@
         <v>210</v>
       </c>
       <c r="F198" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.15">
@@ -6868,7 +6868,7 @@
         <v>206</v>
       </c>
       <c r="F199" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.15">
@@ -6888,7 +6888,7 @@
         <v>207</v>
       </c>
       <c r="F200" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
@@ -6908,7 +6908,7 @@
         <v>208</v>
       </c>
       <c r="F201" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
@@ -6928,7 +6928,7 @@
         <v>209</v>
       </c>
       <c r="F202" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
@@ -6948,7 +6948,7 @@
         <v>210</v>
       </c>
       <c r="F203" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
@@ -6968,7 +6968,7 @@
         <v>206</v>
       </c>
       <c r="F204" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
@@ -6988,7 +6988,7 @@
         <v>207</v>
       </c>
       <c r="F205" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.15">
@@ -7008,7 +7008,7 @@
         <v>208</v>
       </c>
       <c r="F206" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.15">
@@ -7028,7 +7028,7 @@
         <v>209</v>
       </c>
       <c r="F207" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
@@ -7048,7 +7048,7 @@
         <v>210</v>
       </c>
       <c r="F208" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
@@ -7068,7 +7068,7 @@
         <v>206</v>
       </c>
       <c r="F209" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
@@ -7088,7 +7088,7 @@
         <v>207</v>
       </c>
       <c r="F210" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
@@ -7108,7 +7108,7 @@
         <v>208</v>
       </c>
       <c r="F211" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.15">
@@ -7128,7 +7128,7 @@
         <v>209</v>
       </c>
       <c r="F212" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
@@ -7148,7 +7148,7 @@
         <v>210</v>
       </c>
       <c r="F213" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
@@ -7168,7 +7168,7 @@
         <v>206</v>
       </c>
       <c r="F214" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
@@ -7188,7 +7188,7 @@
         <v>207</v>
       </c>
       <c r="F215" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.15">
@@ -7208,7 +7208,7 @@
         <v>208</v>
       </c>
       <c r="F216" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
@@ -7228,7 +7228,7 @@
         <v>209</v>
       </c>
       <c r="F217" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.15">
@@ -7248,7 +7248,7 @@
         <v>210</v>
       </c>
       <c r="F218" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
@@ -7268,7 +7268,7 @@
         <v>206</v>
       </c>
       <c r="F219" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
@@ -7288,7 +7288,7 @@
         <v>207</v>
       </c>
       <c r="F220" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
@@ -7308,7 +7308,7 @@
         <v>208</v>
       </c>
       <c r="F221" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.15">
@@ -7328,7 +7328,7 @@
         <v>209</v>
       </c>
       <c r="F222" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
@@ -7348,7 +7348,7 @@
         <v>210</v>
       </c>
       <c r="F223" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.15">
@@ -7368,7 +7368,7 @@
         <v>206</v>
       </c>
       <c r="F224" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.15">
@@ -7388,7 +7388,7 @@
         <v>207</v>
       </c>
       <c r="F225" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.15">
@@ -7408,7 +7408,7 @@
         <v>208</v>
       </c>
       <c r="F226" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.15">
@@ -7428,7 +7428,7 @@
         <v>209</v>
       </c>
       <c r="F227" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.15">
@@ -7448,7 +7448,7 @@
         <v>210</v>
       </c>
       <c r="F228" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.15">
@@ -7468,7 +7468,7 @@
         <v>206</v>
       </c>
       <c r="F229" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.15">
@@ -7488,7 +7488,7 @@
         <v>207</v>
       </c>
       <c r="F230" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.15">
@@ -7508,7 +7508,7 @@
         <v>208</v>
       </c>
       <c r="F231" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.15">
@@ -7528,7 +7528,7 @@
         <v>209</v>
       </c>
       <c r="F232" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.15">
@@ -7548,7 +7548,7 @@
         <v>210</v>
       </c>
       <c r="F233" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.15">
@@ -7568,7 +7568,7 @@
         <v>206</v>
       </c>
       <c r="F234" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.15">
@@ -7588,7 +7588,7 @@
         <v>207</v>
       </c>
       <c r="F235" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.15">
@@ -7608,7 +7608,7 @@
         <v>208</v>
       </c>
       <c r="F236" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.15">
@@ -7628,7 +7628,7 @@
         <v>209</v>
       </c>
       <c r="F237" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.15">
@@ -7648,7 +7648,7 @@
         <v>210</v>
       </c>
       <c r="F238" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.15">
@@ -7668,7 +7668,7 @@
         <v>206</v>
       </c>
       <c r="F239" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.15">
@@ -7688,7 +7688,7 @@
         <v>207</v>
       </c>
       <c r="F240" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.15">
@@ -7708,7 +7708,7 @@
         <v>208</v>
       </c>
       <c r="F241" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.15">
@@ -7728,7 +7728,7 @@
         <v>209</v>
       </c>
       <c r="F242" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.15">
@@ -7748,7 +7748,7 @@
         <v>210</v>
       </c>
       <c r="F243" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.15">
@@ -7768,7 +7768,7 @@
         <v>206</v>
       </c>
       <c r="F244" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.15">
@@ -7788,7 +7788,7 @@
         <v>207</v>
       </c>
       <c r="F245" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.15">
@@ -7808,7 +7808,7 @@
         <v>208</v>
       </c>
       <c r="F246" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.15">
@@ -7828,7 +7828,7 @@
         <v>209</v>
       </c>
       <c r="F247" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.15">
@@ -7848,7 +7848,7 @@
         <v>210</v>
       </c>
       <c r="F248" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.15">
@@ -7868,7 +7868,7 @@
         <v>206</v>
       </c>
       <c r="F249" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.15">
@@ -7888,7 +7888,7 @@
         <v>207</v>
       </c>
       <c r="F250" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.15">
@@ -7908,7 +7908,7 @@
         <v>208</v>
       </c>
       <c r="F251" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.15">
@@ -7928,7 +7928,7 @@
         <v>209</v>
       </c>
       <c r="F252" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.15">
@@ -7948,7 +7948,7 @@
         <v>210</v>
       </c>
       <c r="F253" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.15">
@@ -7968,7 +7968,7 @@
         <v>206</v>
       </c>
       <c r="F254" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.15">
@@ -7988,7 +7988,7 @@
         <v>207</v>
       </c>
       <c r="F255" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.15">
@@ -8008,7 +8008,7 @@
         <v>208</v>
       </c>
       <c r="F256" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.15">
@@ -8028,7 +8028,7 @@
         <v>209</v>
       </c>
       <c r="F257" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.15">
@@ -8048,7 +8048,7 @@
         <v>210</v>
       </c>
       <c r="F258" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.15">
@@ -8068,7 +8068,7 @@
         <v>206</v>
       </c>
       <c r="F259" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.15">
@@ -8088,7 +8088,7 @@
         <v>207</v>
       </c>
       <c r="F260" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.15">
@@ -8108,7 +8108,7 @@
         <v>208</v>
       </c>
       <c r="F261" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.15">
@@ -8128,7 +8128,7 @@
         <v>209</v>
       </c>
       <c r="F262" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.15">
@@ -8148,7 +8148,7 @@
         <v>210</v>
       </c>
       <c r="F263" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.15">
@@ -8168,7 +8168,7 @@
         <v>206</v>
       </c>
       <c r="F264" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.15">
@@ -8188,7 +8188,7 @@
         <v>207</v>
       </c>
       <c r="F265" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.15">
@@ -8208,7 +8208,7 @@
         <v>208</v>
       </c>
       <c r="F266" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.15">
@@ -8228,7 +8228,7 @@
         <v>209</v>
       </c>
       <c r="F267" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.15">
@@ -8248,7 +8248,7 @@
         <v>210</v>
       </c>
       <c r="F268" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.15">
@@ -8268,7 +8268,7 @@
         <v>206</v>
       </c>
       <c r="F269" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.15">
@@ -8288,7 +8288,7 @@
         <v>207</v>
       </c>
       <c r="F270" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.15">
@@ -8308,7 +8308,7 @@
         <v>208</v>
       </c>
       <c r="F271" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.15">
@@ -8328,7 +8328,7 @@
         <v>209</v>
       </c>
       <c r="F272" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.15">
@@ -8348,7 +8348,7 @@
         <v>210</v>
       </c>
       <c r="F273" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.15">
@@ -8368,7 +8368,7 @@
         <v>206</v>
       </c>
       <c r="F274" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.15">
@@ -8388,7 +8388,7 @@
         <v>207</v>
       </c>
       <c r="F275" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.15">
@@ -8408,7 +8408,7 @@
         <v>208</v>
       </c>
       <c r="F276" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.15">
@@ -8428,7 +8428,7 @@
         <v>209</v>
       </c>
       <c r="F277" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.15">
@@ -8448,7 +8448,7 @@
         <v>210</v>
       </c>
       <c r="F278" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.15">
@@ -8468,7 +8468,7 @@
         <v>206</v>
       </c>
       <c r="F279" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.15">
@@ -8488,7 +8488,7 @@
         <v>207</v>
       </c>
       <c r="F280" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.15">
@@ -8508,7 +8508,7 @@
         <v>208</v>
       </c>
       <c r="F281" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.15">
@@ -8528,7 +8528,7 @@
         <v>209</v>
       </c>
       <c r="F282" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.15">
@@ -8548,7 +8548,7 @@
         <v>210</v>
       </c>
       <c r="F283" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.15">
@@ -8568,7 +8568,7 @@
         <v>206</v>
       </c>
       <c r="F284" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.15">
@@ -8588,7 +8588,7 @@
         <v>207</v>
       </c>
       <c r="F285" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.15">
@@ -8608,7 +8608,7 @@
         <v>208</v>
       </c>
       <c r="F286" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.15">
@@ -8628,7 +8628,7 @@
         <v>209</v>
       </c>
       <c r="F287" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.15">
@@ -8648,7 +8648,7 @@
         <v>210</v>
       </c>
       <c r="F288" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.15">
@@ -8668,7 +8668,7 @@
         <v>206</v>
       </c>
       <c r="F289" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.15">
@@ -8688,7 +8688,7 @@
         <v>207</v>
       </c>
       <c r="F290" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.15">
@@ -8708,7 +8708,7 @@
         <v>208</v>
       </c>
       <c r="F291" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.15">
@@ -8728,7 +8728,7 @@
         <v>209</v>
       </c>
       <c r="F292" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.15">
@@ -8748,7 +8748,7 @@
         <v>210</v>
       </c>
       <c r="F293" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.15">
@@ -8768,7 +8768,7 @@
         <v>206</v>
       </c>
       <c r="F294" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.15">
@@ -8788,7 +8788,7 @@
         <v>207</v>
       </c>
       <c r="F295" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.15">
@@ -8808,7 +8808,7 @@
         <v>208</v>
       </c>
       <c r="F296" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.15">
@@ -8828,7 +8828,7 @@
         <v>209</v>
       </c>
       <c r="F297" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.15">
@@ -8848,7 +8848,7 @@
         <v>210</v>
       </c>
       <c r="F298" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.15">
@@ -8868,7 +8868,7 @@
         <v>206</v>
       </c>
       <c r="F299" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.15">
@@ -8888,7 +8888,7 @@
         <v>207</v>
       </c>
       <c r="F300" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.15">
@@ -8908,7 +8908,7 @@
         <v>208</v>
       </c>
       <c r="F301" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.15">
@@ -8928,7 +8928,7 @@
         <v>209</v>
       </c>
       <c r="F302" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.15">
@@ -8948,7 +8948,7 @@
         <v>210</v>
       </c>
       <c r="F303" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.15">
@@ -8968,7 +8968,7 @@
         <v>206</v>
       </c>
       <c r="F304" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.15">
@@ -8988,7 +8988,7 @@
         <v>207</v>
       </c>
       <c r="F305" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.15">
@@ -9008,7 +9008,7 @@
         <v>208</v>
       </c>
       <c r="F306" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.15">
@@ -9028,7 +9028,7 @@
         <v>209</v>
       </c>
       <c r="F307" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.15">
@@ -9048,7 +9048,7 @@
         <v>210</v>
       </c>
       <c r="F308" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.15">
@@ -9068,7 +9068,7 @@
         <v>206</v>
       </c>
       <c r="F309" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.15">
@@ -9088,7 +9088,7 @@
         <v>207</v>
       </c>
       <c r="F310" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.15">
@@ -9108,7 +9108,7 @@
         <v>208</v>
       </c>
       <c r="F311" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.15">
@@ -9128,7 +9128,7 @@
         <v>209</v>
       </c>
       <c r="F312" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.15">
@@ -9148,7 +9148,7 @@
         <v>210</v>
       </c>
       <c r="F313" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.15">
@@ -9168,7 +9168,7 @@
         <v>206</v>
       </c>
       <c r="F314" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.15">
@@ -9188,7 +9188,7 @@
         <v>207</v>
       </c>
       <c r="F315" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.15">
@@ -9208,7 +9208,7 @@
         <v>208</v>
       </c>
       <c r="F316" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.15">
@@ -9228,7 +9228,7 @@
         <v>209</v>
       </c>
       <c r="F317" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.15">
@@ -9248,7 +9248,7 @@
         <v>210</v>
       </c>
       <c r="F318" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.15">
@@ -9268,7 +9268,7 @@
         <v>206</v>
       </c>
       <c r="F319" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.15">
@@ -9288,7 +9288,7 @@
         <v>207</v>
       </c>
       <c r="F320" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.15">
@@ -9308,7 +9308,7 @@
         <v>208</v>
       </c>
       <c r="F321" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.15">
@@ -9328,7 +9328,7 @@
         <v>209</v>
       </c>
       <c r="F322" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.15">
@@ -9348,7 +9348,7 @@
         <v>210</v>
       </c>
       <c r="F323" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.15">
@@ -9368,7 +9368,7 @@
         <v>206</v>
       </c>
       <c r="F324" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.15">
@@ -9388,7 +9388,7 @@
         <v>207</v>
       </c>
       <c r="F325" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.15">
@@ -9408,7 +9408,7 @@
         <v>208</v>
       </c>
       <c r="F326" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.15">
@@ -9428,7 +9428,7 @@
         <v>209</v>
       </c>
       <c r="F327" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.15">
@@ -9448,7 +9448,7 @@
         <v>210</v>
       </c>
       <c r="F328" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.15">
@@ -9468,7 +9468,7 @@
         <v>206</v>
       </c>
       <c r="F329" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.15">
@@ -9488,7 +9488,7 @@
         <v>207</v>
       </c>
       <c r="F330" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.15">
@@ -9508,7 +9508,7 @@
         <v>208</v>
       </c>
       <c r="F331" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.15">
@@ -9528,7 +9528,7 @@
         <v>209</v>
       </c>
       <c r="F332" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.15">
@@ -9548,7 +9548,7 @@
         <v>210</v>
       </c>
       <c r="F333" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.15">
@@ -9568,7 +9568,7 @@
         <v>206</v>
       </c>
       <c r="F334" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.15">
